--- a/code/data/qdenga_efficacy.xlsx
+++ b/code/data/qdenga_efficacy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/abhisena_nus_edu_sg/Documents/Documents/codes/dengue_main/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/abhisena_nus_edu_sg/Documents/Documents/singapore_dengue_vaccination/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1000" documentId="8_{AE9BE7E3-95EA-4FDF-8C92-253E20CA550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16A9AA5-AC9B-42D7-BD26-33F1CB5E8014}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E609885C-1224-4C80-A53A-DD52A37CB288}"/>
+    <workbookView minimized="1" xWindow="1110" yWindow="330" windowWidth="12165" windowHeight="13710" activeTab="1" xr2:uid="{E609885C-1224-4C80-A53A-DD52A37CB288}"/>
   </bookViews>
   <sheets>
     <sheet name="efficacy" sheetId="1" r:id="rId1"/>
@@ -182,10 +182,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2897,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2709303E-AAFE-40C0-B822-D9D921D9B473}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="T72" sqref="T72"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/code/data/qdenga_efficacy.xlsx
+++ b/code/data/qdenga_efficacy.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nusu-my.sharepoint.com/personal/abhisena_nus_edu_sg/Documents/Documents/singapore_dengue_vaccination/code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1000" documentId="8_{AE9BE7E3-95EA-4FDF-8C92-253E20CA550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16A9AA5-AC9B-42D7-BD26-33F1CB5E8014}"/>
+  <xr:revisionPtr revIDLastSave="1183" documentId="8_{AE9BE7E3-95EA-4FDF-8C92-253E20CA550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{542A7FD3-FB20-476D-8F63-FBB6E81B85F0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1110" yWindow="330" windowWidth="12165" windowHeight="13710" activeTab="1" xr2:uid="{E609885C-1224-4C80-A53A-DD52A37CB288}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E609885C-1224-4C80-A53A-DD52A37CB288}"/>
   </bookViews>
   <sheets>
     <sheet name="efficacy" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="phase" sheetId="2" r:id="rId2"/>
+    <sheet name="cumulative_54" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="31">
   <si>
     <t>ve_against</t>
   </si>
@@ -503,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5BC4F1E-BC03-4E9F-B690-9509B4784AF7}">
   <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="J42" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2709303E-AAFE-40C0-B822-D9D921D9B473}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5036,4 +5037,613 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A4E0B2-DE15-432F-878C-74FBF3324C92}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>295</v>
+      </c>
+      <c r="D2">
+        <v>9663</v>
+      </c>
+      <c r="E2">
+        <v>394</v>
+      </c>
+      <c r="F2">
+        <v>4854</v>
+      </c>
+      <c r="G2">
+        <v>64.2</v>
+      </c>
+      <c r="H2">
+        <v>58.4</v>
+      </c>
+      <c r="I2">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>147</v>
+      </c>
+      <c r="D3">
+        <v>3714</v>
+      </c>
+      <c r="E3">
+        <v>153</v>
+      </c>
+      <c r="F3">
+        <v>1832</v>
+      </c>
+      <c r="G3">
+        <v>53.5</v>
+      </c>
+      <c r="H3">
+        <v>41.6</v>
+      </c>
+      <c r="I3">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>9663</v>
+      </c>
+      <c r="E4">
+        <v>101</v>
+      </c>
+      <c r="F4">
+        <v>4854</v>
+      </c>
+      <c r="G4">
+        <v>85.9</v>
+      </c>
+      <c r="H4">
+        <v>78.7</v>
+      </c>
+      <c r="I4">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>3714</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>1832</v>
+      </c>
+      <c r="G5">
+        <v>79.3</v>
+      </c>
+      <c r="H5">
+        <v>63.5</v>
+      </c>
+      <c r="I5">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>133</v>
+      </c>
+      <c r="D6">
+        <v>9663</v>
+      </c>
+      <c r="E6">
+        <v>151</v>
+      </c>
+      <c r="F6">
+        <v>4854</v>
+      </c>
+      <c r="G6">
+        <v>56.1</v>
+      </c>
+      <c r="H6">
+        <v>44.6</v>
+      </c>
+      <c r="I6">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>54</v>
+      </c>
+      <c r="D7">
+        <v>9663</v>
+      </c>
+      <c r="E7">
+        <v>135</v>
+      </c>
+      <c r="F7">
+        <v>4854</v>
+      </c>
+      <c r="G7">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="H7">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="I7">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>9663</v>
+      </c>
+      <c r="E8">
+        <v>97</v>
+      </c>
+      <c r="F8">
+        <v>4854</v>
+      </c>
+      <c r="G8">
+        <v>52.3</v>
+      </c>
+      <c r="H8">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>9663</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>4854</v>
+      </c>
+      <c r="G9">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="H9">
+        <v>39.9</v>
+      </c>
+      <c r="I9">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>54</v>
+      </c>
+      <c r="C10">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <v>3714</v>
+      </c>
+      <c r="E10">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>1832</v>
+      </c>
+      <c r="G10">
+        <v>45.4</v>
+      </c>
+      <c r="H10">
+        <v>26.1</v>
+      </c>
+      <c r="I10">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>3714</v>
+      </c>
+      <c r="E11">
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <v>1832</v>
+      </c>
+      <c r="G11">
+        <v>88.1</v>
+      </c>
+      <c r="H11">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="I11">
+        <v>93.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>3714</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>1832</v>
+      </c>
+      <c r="G12">
+        <v>-15.5</v>
+      </c>
+      <c r="H12">
+        <v>-108.2</v>
+      </c>
+      <c r="I12">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>3714</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1832</v>
+      </c>
+      <c r="G13">
+        <v>-105.6</v>
+      </c>
+      <c r="H13">
+        <v>-628.70000000000005</v>
+      </c>
+      <c r="I13">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>9663</v>
+      </c>
+      <c r="E14">
+        <v>24</v>
+      </c>
+      <c r="F14">
+        <v>4854</v>
+      </c>
+      <c r="G14">
+        <v>66.8</v>
+      </c>
+      <c r="H14">
+        <v>37.4</v>
+      </c>
+      <c r="I14">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>9663</v>
+      </c>
+      <c r="E15">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>4854</v>
+      </c>
+      <c r="G15">
+        <v>95.8</v>
+      </c>
+      <c r="H15">
+        <v>89.6</v>
+      </c>
+      <c r="I15">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>54</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>9663</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>4854</v>
+      </c>
+      <c r="G16">
+        <v>74</v>
+      </c>
+      <c r="H16">
+        <v>38.6</v>
+      </c>
+      <c r="I16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>54</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>9663</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>4854</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>3714</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>1832</v>
+      </c>
+      <c r="G18">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="H18">
+        <v>43.9</v>
+      </c>
+      <c r="I18">
+        <v>91.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3714</v>
+      </c>
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>1832</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>3714</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1832</v>
+      </c>
+      <c r="G20">
+        <v>-87.9</v>
+      </c>
+      <c r="H20">
+        <v>-573.4</v>
+      </c>
+      <c r="I20">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3714</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1832</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>